--- a/Docs/Bill of Materials.xlsx
+++ b/Docs/Bill of Materials.xlsx
@@ -8,24 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncooper/Documents/GitHub/BME590L_Lightbulb/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DAC3FE-2D23-F140-AC13-BF2C21A56B18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0558BE-BFD2-7C48-BEC4-1CA55639AB37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{F3A930E1-4A19-EF40-9C74-5D9690009127}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{F3A930E1-4A19-EF40-9C74-5D9690009127}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Item</t>
   </si>
@@ -33,9 +38,6 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>3D printed items</t>
-  </si>
-  <si>
     <t>PCB</t>
   </si>
   <si>
@@ -115,6 +117,71 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/GRM2165C1H101JA01D/490-1615-1-ND/587513</t>
+  </si>
+  <si>
+    <t>https://www.makeshaper.com/product/blue-pla-2-85-mm-filament/</t>
+  </si>
+  <si>
+    <t>Volume (cm^3)</t>
+  </si>
+  <si>
+    <t>3D printed items*</t>
+  </si>
+  <si>
+    <t>**https://www.fabbaloo.com/blog/2015/9/27/is-it-filament-weight-or-length</t>
+  </si>
+  <si>
+    <t>***https://www.makeshaper.com/product/blue-pla-2-85-mm-filament/</t>
+  </si>
+  <si>
+    <t>Piece</t>
+  </si>
+  <si>
+    <t>Case Top</t>
+  </si>
+  <si>
+    <t>Case Bottom</t>
+  </si>
+  <si>
+    <t>Plungers (2)</t>
+  </si>
+  <si>
+    <t>Flaps (2)</t>
+  </si>
+  <si>
+    <t>Plunger track</t>
+  </si>
+  <si>
+    <r>
+      <t>Density of PLA (g/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>^3)**</t>
+    </r>
+  </si>
+  <si>
+    <t>*3D printed items calculations:</t>
+  </si>
+  <si>
+    <t>Cost of PLA ($USD/kg)***</t>
+  </si>
+  <si>
+    <t>Total Cost ($USD)</t>
+  </si>
+  <si>
+    <t>Uncountable hours of Matt Brown's time</t>
+  </si>
+  <si>
+    <t>priceless</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/DIY-Single-PCB-Circuit-Kit-Board-Glass-Fiber-One-Side-Copper-Clad-70x100x1-5mm-/142234873243</t>
   </si>
 </sst>
 </file>
@@ -124,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +215,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -178,6 +251,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -493,58 +570,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D68B4E-E7BD-F94B-8EB0-75FB23555E98}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="3"/>
-    <col min="3" max="3" width="10.83203125" style="5"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="3">
+        <f>E25</f>
+        <v>14.238525000000001</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
       </c>
       <c r="D2" s="3">
         <f>B2*C2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14.238525000000001</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D14" si="0">B3*C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>22</v>
@@ -557,12 +654,12 @@
         <v>22</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>2.38</v>
@@ -575,12 +672,12 @@
         <v>2.38</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <f>5.3/10</f>
@@ -594,12 +691,12 @@
         <v>1.06</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>0.36</v>
@@ -612,12 +709,12 @@
         <v>0.72</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
         <f>4.95/10</f>
@@ -631,12 +728,12 @@
         <v>0.495</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
         <f>4.95/10</f>
@@ -650,12 +747,12 @@
         <v>0.495</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3">
         <v>1.28</v>
@@ -668,12 +765,12 @@
         <v>1.28</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>1.5</v>
@@ -686,12 +783,12 @@
         <v>1.5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>0.19</v>
@@ -704,12 +801,12 @@
         <v>0.19</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>25</v>
       </c>
       <c r="B13" s="3">
         <v>0.11</v>
@@ -722,12 +819,12 @@
         <v>0.77</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3">
         <v>0.13</v>
@@ -740,18 +837,129 @@
         <v>0.39</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2">
         <f>SUM(D2:D14)</f>
-        <v>31.28</v>
+        <v>46.518525000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="7">
+        <v>338.68</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="7">
+        <v>197.16</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="7">
+        <f>2.24*2</f>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="7">
+        <f>0.35*2</f>
+        <v>0.7</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7">
+        <f>SUM(B20:B24)</f>
+        <v>542.42000000000007</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="D25" s="3">
+        <v>21</v>
+      </c>
+      <c r="E25" s="3">
+        <f>B25*C25*D25/1000</f>
+        <v>14.238525000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -767,6 +975,10 @@
     <hyperlink ref="E4" r:id="rId9" xr:uid="{00348617-858B-774F-A465-A1589C194F34}"/>
     <hyperlink ref="E13" r:id="rId10" xr:uid="{05AAEDE2-E127-7541-8E96-A1B241D53EE6}"/>
     <hyperlink ref="E14" r:id="rId11" xr:uid="{D991DD00-7881-6A40-94ED-FC6B5F51040D}"/>
+    <hyperlink ref="E2" r:id="rId12" xr:uid="{542F0FA5-5EAD-EA4F-AD71-FB7C6E1C2C39}"/>
+    <hyperlink ref="A26" r:id="rId13" xr:uid="{78CC6B11-438D-5C44-B262-D08B9291207C}"/>
+    <hyperlink ref="A27" r:id="rId14" xr:uid="{922A63A5-F26D-3A4B-925F-68A06BD04FBB}"/>
+    <hyperlink ref="E3" r:id="rId15" xr:uid="{10AACD24-BC22-8343-BE2A-59CC4B0C6F91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
